--- a/templates/template_planeamento.xlsx
+++ b/templates/template_planeamento.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B4CBD6-C15B-406E-B057-26BE740A517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80173BB8-2A19-47B2-B786-E94AB1C955D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8977C262-3CDB-4659-A46B-5404ADCD3375}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -590,61 +587,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -776,9 +731,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -787,42 +739,57 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0"/>
@@ -857,9 +824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>488958</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>107718</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,8 +856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="120650"/>
-          <a:ext cx="4156083" cy="828675"/>
+          <a:off x="102054" y="120650"/>
+          <a:ext cx="3393843" cy="654957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,15 +869,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1726700</xdr:colOff>
+      <xdr:colOff>386191</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>14787</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -938,8 +905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7067050" y="14287"/>
-          <a:ext cx="1080000" cy="1080000"/>
+          <a:off x="4907391" y="39687"/>
+          <a:ext cx="845709" cy="849313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,400 +916,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Alerts"/>
-      <sheetName val="Cadastro"/>
-      <sheetName val="CadOcorr"/>
-      <sheetName val="DataConfig"/>
-      <sheetName val="Index"/>
-      <sheetName val="IndexEAE"/>
-      <sheetName val="IndexDispElem"/>
-      <sheetName val="IndexSitViat"/>
-      <sheetName val="IndexInfoRel"/>
-      <sheetName val="IndexInterrVia"/>
-      <sheetName val="IndexCMAs"/>
-      <sheetName val="IndexEvent"/>
-      <sheetName val="Index ConsCham"/>
-      <sheetName val="Index Configurações"/>
-      <sheetName val="Index Documentação"/>
-      <sheetName val="IndexEurRescue"/>
-      <sheetName val="IndexCREPC"/>
-      <sheetName val="IndexIntrop022024"/>
-      <sheetName val="IndexNRBQ"/>
-      <sheetName val="Index Consulta Inops"/>
-      <sheetName val="InoVeíc"/>
-      <sheetName val="InoList"/>
-      <sheetName val="Index Ficheiros DECIR"/>
-      <sheetName val="Moas"/>
-      <sheetName val="Index AneG2"/>
-      <sheetName val="AneG2"/>
-      <sheetName val="AneG2Record"/>
-      <sheetName val="AsnDec"/>
-      <sheetName val="PERACE"/>
-      <sheetName val="IndexContRef"/>
-      <sheetName val="RefAbr"/>
-      <sheetName val="RefMai"/>
-      <sheetName val="RefJun"/>
-      <sheetName val="RefJul"/>
-      <sheetName val="RefAgo"/>
-      <sheetName val="RefSet"/>
-      <sheetName val="RefOut"/>
-      <sheetName val="AsnDecFin"/>
-      <sheetName val="Index Guias de Comando"/>
-      <sheetName val="GCUI"/>
-      <sheetName val="GCIF"/>
-      <sheetName val="GCACD"/>
-      <sheetName val="GCMP"/>
-      <sheetName val="Index RecInop"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="RecServ"/>
-      <sheetName val="InoIne"/>
-      <sheetName val="Reports"/>
-      <sheetName val="Data"/>
-      <sheetName val="Graph"/>
-      <sheetName val="Analisys"/>
-      <sheetName val="Index Planeamento Diário"/>
-      <sheetName val="PlanDir"/>
-      <sheetName val="PlanDirRecords"/>
-      <sheetName val="PlanDirSubTur"/>
-      <sheetName val="PlanDirViewLC"/>
-      <sheetName val="Index Documentação Complementar"/>
-      <sheetName val="HemoList"/>
-      <sheetName val="HemoContact"/>
-      <sheetName val="CardPrio"/>
-      <sheetName val="RecMater"/>
-      <sheetName val="RegLevCCC"/>
-      <sheetName val="Index Outra Documentação"/>
-      <sheetName val="SumPres"/>
-      <sheetName val="TermRespons"/>
-      <sheetName val="RegPCR"/>
-      <sheetName val="RegOcorr"/>
-      <sheetName val="ListOcorr"/>
-      <sheetName val="CatchOcorrData"/>
-      <sheetName val="ListaContactos"/>
-      <sheetName val="ListaNominal"/>
-      <sheetName val="Index PPIs"/>
-      <sheetName val="Index A2"/>
-      <sheetName val="Index A22"/>
-      <sheetName val="Index Aeroporto"/>
-      <sheetName val="Index Via Férrea"/>
-      <sheetName val="A221A"/>
-      <sheetName val="A221B"/>
-      <sheetName val="A221C"/>
-      <sheetName val="A221D"/>
-      <sheetName val="A221E"/>
-      <sheetName val="A221F"/>
-      <sheetName val="A221G"/>
-      <sheetName val="A221H"/>
-      <sheetName val="A221I"/>
-      <sheetName val="A221J"/>
-      <sheetName val="A221K"/>
-      <sheetName val="A221L"/>
-      <sheetName val="A221M"/>
-      <sheetName val="A221N"/>
-      <sheetName val="A221O"/>
-      <sheetName val="A221P"/>
-      <sheetName val="A221Q"/>
-      <sheetName val="A221R"/>
-      <sheetName val="A221S"/>
-      <sheetName val="A222A"/>
-      <sheetName val="A222B"/>
-      <sheetName val="A222C"/>
-      <sheetName val="A222D"/>
-      <sheetName val="A222E"/>
-      <sheetName val="A222F"/>
-      <sheetName val="A222G"/>
-      <sheetName val="A222H"/>
-      <sheetName val="A222I"/>
-      <sheetName val="A222J"/>
-      <sheetName val="A222K"/>
-      <sheetName val="A222L"/>
-      <sheetName val="A222M"/>
-      <sheetName val="A222N"/>
-      <sheetName val="A222O"/>
-      <sheetName val="A222P"/>
-      <sheetName val="A222Q"/>
-      <sheetName val="A222R"/>
-      <sheetName val="A222S"/>
-      <sheetName val="A22I1"/>
-      <sheetName val="A22I2"/>
-      <sheetName val="A22I3"/>
-      <sheetName val="A22I4"/>
-      <sheetName val="A22I5"/>
-      <sheetName val="A22I6"/>
-      <sheetName val="A22I7"/>
-      <sheetName val="A22I8"/>
-      <sheetName val="A22I9"/>
-      <sheetName val="A22I10"/>
-      <sheetName val="A22I11"/>
-      <sheetName val="A22I12"/>
-      <sheetName val="A22I13"/>
-      <sheetName val="A22I14"/>
-      <sheetName val="A22I15"/>
-      <sheetName val="A22I16"/>
-      <sheetName val="A22I17"/>
-      <sheetName val="A22I18"/>
-      <sheetName val="A22GNR"/>
-      <sheetName val="A22ES"/>
-      <sheetName val="AGCA1"/>
-      <sheetName val="AGCA2"/>
-      <sheetName val="AGCA3"/>
-      <sheetName val="AGCA4"/>
-      <sheetName val="AGCB1"/>
-      <sheetName val="AGCINEM"/>
-      <sheetName val="AGCCVP"/>
-      <sheetName val="AGCPM"/>
-      <sheetName val="AGCPLACOM"/>
-      <sheetName val="LFAA"/>
-      <sheetName val="LFAB"/>
-      <sheetName val="LFAC"/>
-      <sheetName val="LFAD"/>
-      <sheetName val="LFAE"/>
-      <sheetName val="LFAF"/>
-      <sheetName val="LFAG"/>
-      <sheetName val="LFAH"/>
-      <sheetName val="LFAI"/>
-      <sheetName val="LFAJ"/>
-      <sheetName val="LFAK"/>
-      <sheetName val="LFAL"/>
-      <sheetName val="LFAM"/>
-      <sheetName val="LFAN"/>
-      <sheetName val="LFAO"/>
-      <sheetName val="LFAP"/>
-      <sheetName val="LFAIA"/>
-      <sheetName val="LFAIB"/>
-      <sheetName val="LFAIC"/>
-      <sheetName val="LFAID"/>
-      <sheetName val="LFAIE"/>
-      <sheetName val="LFAIF"/>
-      <sheetName val="LFAIG"/>
-      <sheetName val="LFAIH"/>
-      <sheetName val="LFAII"/>
-      <sheetName val="LFAIJ"/>
-      <sheetName val="LFAIK"/>
-      <sheetName val="LFAIL"/>
-      <sheetName val="LFAIM"/>
-      <sheetName val="LFAIN"/>
-      <sheetName val="LFAIO"/>
-      <sheetName val="LFAIP"/>
-      <sheetName val="LFAAMNA"/>
-      <sheetName val="LFAAMNB"/>
-      <sheetName val="LFAAMNC"/>
-      <sheetName val="LFAAMNK"/>
-      <sheetName val="LFAAMNL"/>
-      <sheetName val="LFAAMNM"/>
-      <sheetName val="LFAAMNN"/>
-      <sheetName val="LFAAMNO"/>
-      <sheetName val="LFAAMNP"/>
-      <sheetName val="FNINRBQ"/>
-      <sheetName val="FRNRBQ"/>
-      <sheetName val="FINRBQ"/>
-      <sheetName val="A221B (2)"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="PlanDirMail"/>
-      <definedName name="PlanDirReload"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-      <sheetData sheetId="125"/>
-      <sheetData sheetId="126"/>
-      <sheetData sheetId="127"/>
-      <sheetData sheetId="128"/>
-      <sheetData sheetId="129"/>
-      <sheetData sheetId="130"/>
-      <sheetData sheetId="131"/>
-      <sheetData sheetId="132"/>
-      <sheetData sheetId="133"/>
-      <sheetData sheetId="134"/>
-      <sheetData sheetId="135"/>
-      <sheetData sheetId="136"/>
-      <sheetData sheetId="137"/>
-      <sheetData sheetId="138"/>
-      <sheetData sheetId="139"/>
-      <sheetData sheetId="140"/>
-      <sheetData sheetId="141"/>
-      <sheetData sheetId="142"/>
-      <sheetData sheetId="143"/>
-      <sheetData sheetId="144"/>
-      <sheetData sheetId="145"/>
-      <sheetData sheetId="146"/>
-      <sheetData sheetId="147"/>
-      <sheetData sheetId="148"/>
-      <sheetData sheetId="149"/>
-      <sheetData sheetId="150"/>
-      <sheetData sheetId="151"/>
-      <sheetData sheetId="152"/>
-      <sheetData sheetId="153"/>
-      <sheetData sheetId="154"/>
-      <sheetData sheetId="155"/>
-      <sheetData sheetId="156"/>
-      <sheetData sheetId="157"/>
-      <sheetData sheetId="158"/>
-      <sheetData sheetId="159"/>
-      <sheetData sheetId="160"/>
-      <sheetData sheetId="161"/>
-      <sheetData sheetId="162"/>
-      <sheetData sheetId="163"/>
-      <sheetData sheetId="164"/>
-      <sheetData sheetId="165"/>
-      <sheetData sheetId="166"/>
-      <sheetData sheetId="167"/>
-      <sheetData sheetId="168"/>
-      <sheetData sheetId="169"/>
-      <sheetData sheetId="170"/>
-      <sheetData sheetId="171"/>
-      <sheetData sheetId="172"/>
-      <sheetData sheetId="173"/>
-      <sheetData sheetId="174"/>
-      <sheetData sheetId="175"/>
-      <sheetData sheetId="176"/>
-      <sheetData sheetId="177"/>
-      <sheetData sheetId="178"/>
-      <sheetData sheetId="179"/>
-      <sheetData sheetId="180"/>
-      <sheetData sheetId="181"/>
-      <sheetData sheetId="182"/>
-      <sheetData sheetId="183"/>
-      <sheetData sheetId="184"/>
-      <sheetData sheetId="185"/>
-      <sheetData sheetId="186"/>
-      <sheetData sheetId="187"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1644,33 +1217,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0F9D09-BF32-42F7-9421-B0BE39951D43}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="42" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.42578125" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1682,979 +1254,913 @@
     <row r="9" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="54"/>
+      <c r="G22" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="54"/>
+      <c r="G27" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="54"/>
+      <c r="G32" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="27"/>
-    </row>
-    <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="27"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13" t="s">
+      <c r="F41" s="54"/>
+      <c r="G41" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="27"/>
-    </row>
-    <row r="44" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="27"/>
-    </row>
-    <row r="45" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="27"/>
-    </row>
-    <row r="46" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="27"/>
-    </row>
-    <row r="47" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="27"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13" t="s">
+      <c r="F50" s="54"/>
+      <c r="G50" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="15"/>
+      <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18" t="s">
+      <c r="B51" s="53"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="27"/>
-    </row>
-    <row r="53" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="27"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13" t="s">
+      <c r="F56" s="54"/>
+      <c r="G56" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="15"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="27"/>
-    </row>
-    <row r="59" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="27"/>
-    </row>
-    <row r="60" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="27"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13" t="s">
+      <c r="F63" s="54"/>
+      <c r="G63" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J63" s="15"/>
+      <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="18" t="s">
+      <c r="B64" s="53"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="15"/>
-    </row>
-    <row r="65" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="27"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="27"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="13"/>
     </row>
     <row r="68" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13" t="s">
+      <c r="F70" s="54"/>
+      <c r="G70" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="15"/>
+      <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18" t="s">
+      <c r="B71" s="53"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="27"/>
-    </row>
-    <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="35"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="27"/>
-    </row>
-    <row r="74" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="27"/>
-    </row>
-    <row r="75" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="27"/>
-    </row>
-    <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="27"/>
-    </row>
-    <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="27"/>
-    </row>
-    <row r="78" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="35"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="27"/>
-    </row>
-    <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="35"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="27"/>
-    </row>
-    <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="35"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="27"/>
-    </row>
-    <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="27"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="13"/>
+    </row>
+    <row r="79" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="55"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="56"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="59" t="str">
+      <c r="B83" s="48" t="str">
         <f ca="1">"Última atualização às: "&amp;TEXT(NOW(),"hh:mm")</f>
-        <v>Última atualização às: 13:52</v>
-      </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
-      <c r="I83" s="62" t="s">
+        <v>Última atualização às: 12:22</v>
+      </c>
+      <c r="C83" s="48"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
+      <c r="I83" s="47" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B11:I13"/>
     <mergeCell ref="B14:I14"/>
@@ -2665,18 +2171,80 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
   </mergeCells>
-  <conditionalFormatting sqref="G19 G24 G29 G34:G38 G43:G47 G52:G53 G58:G60 G65:G67 G72:G81">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H81 H65:H67 H58:H60 H52:H53 H43:H47 H34:H38 H29 H24 H19">
+  <conditionalFormatting sqref="G19:H19 G24:H24 G29:H29 G34:H38 G43:H47 G52:H53 G58:H60 G65:H67 G72:H81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>